--- a/PTBR/Lang/PTBR/Dialog/Drama/farris.xlsx
+++ b/PTBR/Lang/PTBR/Dialog/Drama/farris.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Dialog\Drama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\Drama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFB89D9-32D3-464E-B4C9-DCD1F20D004F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0393A859-7B51-4687-9235-1DCE3FBECAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="1965" windowWidth="21450" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="farris" sheetId="1" r:id="rId1"/>
@@ -1325,10 +1325,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomLeft" activeCell="A160" sqref="A160:XFD160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/PTBR/Lang/PTBR/Dialog/Drama/farris.xlsx
+++ b/PTBR/Lang/PTBR/Dialog/Drama/farris.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\Drama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0393A859-7B51-4687-9235-1DCE3FBECAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FE5BB2-CE77-45D6-B7DD-3BE46D5F20E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="1965" windowWidth="21450" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="945" windowWidth="21450" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="farris" sheetId="1" r:id="rId1"/>
@@ -1328,7 +1328,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A160" sqref="A160:XFD160"/>
+      <selection pane="bottomLeft" activeCell="I155" sqref="I155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
